--- a/010_data/2020_PA.xlsx
+++ b/010_data/2020_PA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Box/Documents/Hanks-Research/2020_Kestrel_Plots/010_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/010_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF815AC-603E-3846-9FE1-31624FC3F96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A18B58E-78CD-BE4D-B99F-CCCBAADE4012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="27400" windowHeight="17040" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t># chicks</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Devich Farbotnik in Bucks County, PA</t>
   </si>
 </sst>
 </file>
@@ -102,17 +105,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,26 +457,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474FD0B-C36E-E645-A63D-D7F861907EC9}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -480,13 +485,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2018</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>48</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
     </row>
@@ -494,13 +499,13 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>3.9</v>
       </c>
     </row>
@@ -508,13 +513,13 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -522,13 +527,13 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2.4</v>
       </c>
     </row>
@@ -536,13 +541,13 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1.8</v>
       </c>
     </row>
@@ -550,13 +555,13 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3.3</v>
       </c>
     </row>
@@ -564,13 +569,13 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>3.5</v>
       </c>
     </row>
@@ -578,18 +583,113 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="2">
+        <v>169</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C11" s="2">
+        <v>164</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C12" s="2">
+        <v>203</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="2">
+        <v>208</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="2">
+        <v>208</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="2">
+        <v>206</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="2">
+        <v>253</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/010_data/2020_PA.xlsx
+++ b/010_data/2020_PA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/010_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A18B58E-78CD-BE4D-B99F-CCCBAADE4012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F562C2CF-BE73-2A49-B24F-C8C0A624DC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27400" windowHeight="17040" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
+    <workbookView xWindow="6120" yWindow="920" windowWidth="27400" windowHeight="17040" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t># chicks</t>
   </si>
@@ -89,14 +89,17 @@
     <t>year</t>
   </si>
   <si>
-    <t>Devich Farbotnik in Bucks County, PA</t>
+    <t>Devich Farbotnik in Bucks County</t>
+  </si>
+  <si>
+    <t>Jere Schade and Steve Benningfield in Bucks County</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +117,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474FD0B-C36E-E645-A63D-D7F861907EC9}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,7 +492,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
@@ -496,7 +506,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -510,7 +520,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -524,7 +534,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -538,7 +548,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -552,7 +562,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -566,7 +576,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -580,7 +590,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -594,7 +604,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
@@ -608,7 +618,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
@@ -622,7 +632,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2">
@@ -636,7 +646,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2">
@@ -650,7 +660,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
@@ -664,7 +674,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2">
@@ -678,7 +688,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2">
@@ -689,6 +699,76 @@
       </c>
       <c r="D16" s="2">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="2">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/010_data/2020_PA.xlsx
+++ b/010_data/2020_PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/010_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F562C2CF-BE73-2A49-B24F-C8C0A624DC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F72DFC3-828C-BF4D-AC99-1B78159780FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="920" windowWidth="27400" windowHeight="17040" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
+    <workbookView xWindow="1400" yWindow="920" windowWidth="27400" windowHeight="17040" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t># chicks</t>
   </si>
@@ -41,9 +41,6 @@
     <t>chicks/nested box</t>
   </si>
   <si>
-    <t xml:space="preserve">PA Shaver’s Cr SE   </t>
-  </si>
-  <si>
     <t>2019                 </t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>294                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">PA Shaver’s Cr JK </t>
-  </si>
-  <si>
     <t>12                                        </t>
   </si>
   <si>
@@ -93,13 +87,25 @@
   </si>
   <si>
     <t>Jere Schade and Steve Benningfield in Bucks County</t>
+  </si>
+  <si>
+    <t>PA Game Commission SE</t>
+  </si>
+  <si>
+    <t>PA Shaver’s Creek</t>
+  </si>
+  <si>
+    <t>Eisenhauer</t>
+  </si>
+  <si>
+    <t>Hawk Mountain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +133,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,11 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474FD0B-C36E-E645-A63D-D7F861907EC9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,7 +502,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -493,7 +513,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>2018</v>
@@ -507,13 +527,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>3.9</v>
@@ -521,13 +541,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>4.0999999999999996</v>
@@ -535,13 +555,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>2.4</v>
@@ -549,13 +569,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>1.8</v>
@@ -563,13 +583,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>3.3</v>
@@ -577,13 +597,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>3.5</v>
@@ -591,13 +611,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>3.7</v>
@@ -605,7 +625,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>2014</v>
@@ -619,7 +639,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -633,7 +653,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>2016</v>
@@ -647,7 +667,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>2017</v>
@@ -661,7 +681,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>2018</v>
@@ -675,7 +695,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>2019</v>
@@ -689,7 +709,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>2020</v>
@@ -703,7 +723,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>2016</v>
@@ -717,7 +737,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>2017</v>
@@ -731,7 +751,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>2018</v>
@@ -745,7 +765,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>2019</v>
@@ -759,7 +779,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>2020</v>
@@ -769,6 +789,242 @@
       </c>
       <c r="D21" s="2">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C26" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C27" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C28" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C29" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C30" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C31" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C32" s="2">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C33" s="2">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C34" s="2">
+        <v>53</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C35" s="2">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C36" s="2">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C37" s="2">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="2">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C39" s="2">
+        <v>170</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="2">
+        <v>226</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/010_data/2020_PA.xlsx
+++ b/010_data/2020_PA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/010_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F72DFC3-828C-BF4D-AC99-1B78159780FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B10FB3-B9E0-2F47-834D-11D9C82C1FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="920" windowWidth="27400" windowHeight="17040" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
+    <workbookView xWindow="1400" yWindow="920" windowWidth="26400" windowHeight="17040" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,53 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
-  <si>
-    <t># chicks</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>chicks/nested box</t>
   </si>
   <si>
-    <t>2019                 </t>
-  </si>
-  <si>
-    <t>130                                     </t>
-  </si>
-  <si>
-    <t>2020                </t>
-  </si>
-  <si>
-    <t>294                                     </t>
-  </si>
-  <si>
-    <t>12                                        </t>
-  </si>
-  <si>
-    <t>2020                 </t>
-  </si>
-  <si>
-    <t>29                                        </t>
-  </si>
-  <si>
-    <t>2020                   </t>
-  </si>
-  <si>
-    <t>23                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">PA Centr Cons SE   </t>
   </si>
   <si>
-    <t>14                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">PA Moffett              </t>
   </si>
   <si>
-    <t>26                                        </t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -99,6 +63,27 @@
   </si>
   <si>
     <t>Hawk Mountain</t>
+  </si>
+  <si>
+    <t>Karner</t>
+  </si>
+  <si>
+    <t>66*</t>
+  </si>
+  <si>
+    <t>85*</t>
+  </si>
+  <si>
+    <t>93*</t>
+  </si>
+  <si>
+    <t>chicks banded</t>
+  </si>
+  <si>
+    <t>label chicks banded</t>
+  </si>
+  <si>
+    <t>McKelvie</t>
   </si>
 </sst>
 </file>
@@ -166,13 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474FD0B-C36E-E645-A63D-D7F861907EC9}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,21 +487,24 @@
     <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>2018</v>
@@ -524,108 +515,132 @@
       <c r="D2" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="2">
+        <v>130</v>
       </c>
       <c r="D3" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="2">
+        <v>294</v>
       </c>
       <c r="D4" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
+      <c r="B6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="2">
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
+      <c r="B8" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="2">
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>2014</v>
@@ -636,10 +651,13 @@
       <c r="D10" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -650,10 +668,13 @@
       <c r="D11" s="2">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
         <v>2016</v>
@@ -664,10 +685,13 @@
       <c r="D12" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
         <v>2017</v>
@@ -678,10 +702,13 @@
       <c r="D13" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
         <v>2018</v>
@@ -692,10 +719,13 @@
       <c r="D14" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
         <v>2019</v>
@@ -706,10 +736,13 @@
       <c r="D15" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
         <v>2020</v>
@@ -720,10 +753,13 @@
       <c r="D16" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
         <v>2016</v>
@@ -734,10 +770,13 @@
       <c r="D17" s="2">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>2017</v>
@@ -748,10 +787,13 @@
       <c r="D18" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>2018</v>
@@ -762,10 +804,13 @@
       <c r="D19" s="2">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>2019</v>
@@ -776,10 +821,13 @@
       <c r="D20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>2020</v>
@@ -790,10 +838,13 @@
       <c r="D21" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>2020</v>
@@ -801,10 +852,13 @@
       <c r="C22" s="4">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
         <v>2019</v>
@@ -812,10 +866,13 @@
       <c r="C23" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
         <v>2018</v>
@@ -823,10 +880,13 @@
       <c r="C24" s="4">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
         <v>2017</v>
@@ -834,10 +894,13 @@
       <c r="C25" s="4">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
         <v>2016</v>
@@ -845,10 +908,13 @@
       <c r="C26" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
         <v>2015</v>
@@ -856,10 +922,13 @@
       <c r="C27" s="4">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
         <v>2014</v>
@@ -867,10 +936,13 @@
       <c r="C28" s="4">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
         <v>2013</v>
@@ -878,10 +950,13 @@
       <c r="C29" s="4">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
         <v>2012</v>
@@ -889,10 +964,13 @@
       <c r="C30" s="4">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E30" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
         <v>2011</v>
@@ -900,10 +978,13 @@
       <c r="C31" s="4">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>2012</v>
@@ -914,10 +995,13 @@
       <c r="D32" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E32" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2">
         <v>2013</v>
@@ -928,10 +1012,13 @@
       <c r="D33" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E33" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
         <v>2014</v>
@@ -942,10 +1029,13 @@
       <c r="D34" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E34" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2">
         <v>2015</v>
@@ -956,10 +1046,13 @@
       <c r="D35" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2">
         <v>2016</v>
@@ -970,10 +1063,13 @@
       <c r="D36" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E36" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2">
         <v>2017</v>
@@ -984,10 +1080,13 @@
       <c r="D37" s="2">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E37" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2">
         <v>2018</v>
@@ -998,10 +1097,13 @@
       <c r="D38" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E38" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2">
         <v>2019</v>
@@ -1012,10 +1114,13 @@
       <c r="D39" s="2">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2">
         <v>2020</v>
@@ -1025,6 +1130,324 @@
       </c>
       <c r="D40" s="2">
         <v>2.8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C41" s="2">
+        <v>264</v>
+      </c>
+      <c r="E41" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C42" s="2">
+        <v>184</v>
+      </c>
+      <c r="E42" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C43" s="2">
+        <v>215</v>
+      </c>
+      <c r="E43" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C44" s="2">
+        <v>187</v>
+      </c>
+      <c r="E44" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C45" s="2">
+        <v>154</v>
+      </c>
+      <c r="E45" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C46" s="2">
+        <v>183</v>
+      </c>
+      <c r="E46" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C47" s="2">
+        <v>111</v>
+      </c>
+      <c r="E47" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C48" s="2">
+        <v>126</v>
+      </c>
+      <c r="E48" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C49" s="2">
+        <v>66</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C50" s="2">
+        <v>135</v>
+      </c>
+      <c r="E50" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C51" s="2">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C52" s="2">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C53" s="2">
+        <v>149</v>
+      </c>
+      <c r="E53" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="2">
+        <v>196</v>
+      </c>
+      <c r="E54" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C55" s="6">
+        <v>9</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E55" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C56" s="6">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E56" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C57" s="6">
+        <v>25</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E57" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C58" s="6">
+        <v>10</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E58" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C59" s="6">
+        <v>36</v>
+      </c>
+      <c r="D59" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E59" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="6">
+        <v>59</v>
+      </c>
+      <c r="D60" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="E60" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="6">
+        <v>71</v>
+      </c>
+      <c r="D61" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E61" s="6">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/010_data/2020_PA.xlsx
+++ b/010_data/2020_PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/010_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F003BE-449D-8E4D-BF5E-5095EFC06D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9B71BD-5BB9-474E-AE78-FBFC783567EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="27700" windowHeight="17540" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
+    <workbookView xWindow="1040" yWindow="480" windowWidth="27700" windowHeight="17540" xr2:uid="{FBB681FB-660C-454A-A7AE-1280157312B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="31">
   <si>
     <t>chicks/nested box</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Schade &amp; Benningfield</t>
   </si>
   <si>
-    <t>PA Game Commission</t>
-  </si>
-  <si>
     <t>HARP</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Devich is based in Bucks County</t>
-  </si>
-  <si>
-    <t>Emily Thomas Perlock and Don Watts are based in northwest PA, and bit into NY state</t>
   </si>
   <si>
     <t>Sanctuary in Berks County has operated a kestrel nest box program for 70 years</t>
@@ -157,61 +151,23 @@
     <t>with help from Shaver's Creek Environmental Center set up program in 4 counties around State College area</t>
   </si>
   <si>
-    <r>
-      <t>Southeast (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) Region so far is leading with the Commission's kestrel nest box program but North Central (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) isn't far behind and other regions are also developing programs</t>
-    </r>
-  </si>
-  <si>
     <t>Shaver's Creek</t>
+  </si>
+  <si>
+    <t>PGC</t>
+  </si>
+  <si>
+    <t>Southeast region's program is furthest along in development with the Northcentral region close behind and other regions also developing programs with banding expected to start in the near future</t>
+  </si>
+  <si>
+    <t>Emily H. Thomas and Don Watts are based in northwest PA, and a bit into NY state</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +229,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,6 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474FD0B-C36E-E645-A63D-D7F861907EC9}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -635,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -650,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -670,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -690,7 +653,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -710,7 +673,7 @@
         <v>130</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -730,12 +693,12 @@
         <v>294</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2">
         <v>2018</v>
@@ -750,12 +713,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -770,12 +733,12 @@
         <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>2020</v>
@@ -790,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -810,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -830,12 +793,12 @@
         <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>2018</v>
@@ -850,12 +813,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>2019</v>
@@ -870,12 +833,12 @@
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>2020</v>
@@ -890,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -910,7 +873,7 @@
         <v>169</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -930,7 +893,7 @@
         <v>164</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -950,7 +913,7 @@
         <v>203</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -970,7 +933,7 @@
         <v>208</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -990,7 +953,7 @@
         <v>208</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1010,7 +973,7 @@
         <v>206</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1030,7 +993,7 @@
         <v>253</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1050,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1070,7 +1033,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1090,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1110,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1130,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1150,7 +1113,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1167,7 +1130,7 @@
         <v>88</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1184,7 +1147,7 @@
         <v>80</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1201,7 +1164,7 @@
         <v>88</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1218,7 +1181,7 @@
         <v>114</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1235,7 +1198,7 @@
         <v>150</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1252,7 +1215,7 @@
         <v>141</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1269,7 +1232,7 @@
         <v>118</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1286,7 +1249,7 @@
         <v>157</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1303,7 +1266,7 @@
         <v>141</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1320,275 +1283,275 @@
         <v>183</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C37" s="9">
+        <v>156</v>
+      </c>
+      <c r="E37" s="9">
+        <v>156</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2008</v>
+      </c>
+      <c r="C38" s="9">
+        <v>145</v>
+      </c>
+      <c r="E38" s="9">
+        <v>145</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C39" s="9">
+        <v>143</v>
+      </c>
+      <c r="E39" s="9">
+        <v>143</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C40" s="9">
+        <v>207</v>
+      </c>
+      <c r="E40" s="9">
+        <v>207</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2">
         <v>2011</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2">
         <v>2012</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C42" s="2">
         <v>34</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D42" s="2">
         <v>3.4</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E42" s="2">
         <v>34</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2">
         <v>2013</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C43" s="2">
         <v>58</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D43" s="2">
         <v>3.6</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E43" s="2">
         <v>58</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F43" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2">
         <v>2014</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C44" s="2">
         <v>53</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D44" s="2">
         <v>2.5</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E44" s="2">
         <v>53</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F44" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2">
         <v>2015</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C45" s="2">
         <v>58</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D45" s="2">
         <v>2.5</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E45" s="2">
         <v>58</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F45" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2">
         <v>2016</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C46" s="2">
         <v>63</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D46" s="2">
         <v>2.6</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E46" s="2">
         <v>63</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F46" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2">
         <v>2017</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C47" s="2">
         <v>86</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D47" s="2">
         <v>2.8</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E47" s="2">
         <v>86</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2">
         <v>2018</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C48" s="2">
         <v>110</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D48" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E48" s="2">
         <v>110</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="2">
         <v>2019</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C49" s="2">
         <v>170</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D49" s="2">
         <v>2.9</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E49" s="2">
         <v>170</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F49" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2">
         <v>2020</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C50" s="2">
         <v>226</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D50" s="2">
         <v>2.8</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E50" s="2">
         <v>226</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F50" s="5" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C48" s="2">
-        <v>264</v>
-      </c>
-      <c r="E48" s="2">
-        <v>264</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C49" s="2">
-        <v>184</v>
-      </c>
-      <c r="E49" s="2">
-        <v>184</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="5">
-        <v>2009</v>
-      </c>
-      <c r="C50" s="2">
-        <v>215</v>
-      </c>
-      <c r="E50" s="2">
-        <v>215</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1596,16 +1559,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C51" s="2">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1613,16 +1576,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="5">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C52" s="2">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="E52" s="2">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1630,16 +1593,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="5">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C53" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1647,16 +1610,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="5">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C54" s="2">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1664,16 +1627,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="5">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C55" s="2">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="E55" s="2">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1681,16 +1644,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="5">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C56" s="2">
-        <v>66</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>5</v>
+        <v>154</v>
+      </c>
+      <c r="E56" s="2">
+        <v>154</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1698,16 +1661,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C57" s="2">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E57" s="2">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1715,16 +1678,16 @@
         <v>4</v>
       </c>
       <c r="B58" s="5">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C58" s="2">
-        <v>85</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="E58" s="2">
+        <v>111</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1732,16 +1695,16 @@
         <v>4</v>
       </c>
       <c r="B59" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C59" s="2">
-        <v>93</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>7</v>
+        <v>126</v>
+      </c>
+      <c r="E59" s="2">
+        <v>126</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1749,16 +1712,16 @@
         <v>4</v>
       </c>
       <c r="B60" s="5">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C60" s="2">
-        <v>149</v>
-      </c>
-      <c r="E60" s="2">
-        <v>149</v>
+        <v>66</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20" x14ac:dyDescent="0.25">
@@ -1766,253 +1729,241 @@
         <v>4</v>
       </c>
       <c r="B61" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C61" s="2">
+        <v>135</v>
+      </c>
+      <c r="E61" s="2">
+        <v>135</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="2">
+        <v>85</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C63" s="2">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="2">
+        <v>149</v>
+      </c>
+      <c r="E64" s="2">
+        <v>149</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C65" s="2">
         <v>196</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E65" s="2">
         <v>196</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="6">
-        <v>2013</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="6">
-        <v>2014</v>
-      </c>
-      <c r="C63" s="6">
-        <v>9</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E63" s="6">
-        <v>9</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="6">
-        <v>2015</v>
-      </c>
-      <c r="C64" s="6">
-        <v>15</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E64" s="6">
-        <v>15</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="6">
-        <v>2016</v>
-      </c>
-      <c r="C65" s="6">
+      <c r="F65" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E65" s="6">
-        <v>25</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="6">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C66" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D66" s="6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="6">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C67" s="6">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D67" s="6">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="E67" s="6">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" s="6">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C68" s="6">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="E68" s="6">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="6">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C69" s="6">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D69" s="6">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="E69" s="6">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C70" s="5">
-        <v>59</v>
-      </c>
-      <c r="D70" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="E70" s="5">
-        <v>59</v>
+      <c r="A70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C70" s="6">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E70" s="6">
+        <v>10</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="5">
-        <v>59</v>
-      </c>
-      <c r="D71" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="E71" s="5">
-        <v>59</v>
+      <c r="A71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C71" s="6">
+        <v>36</v>
+      </c>
+      <c r="D71" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E71" s="6">
+        <v>36</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C72" s="5">
-        <v>37</v>
-      </c>
-      <c r="D72" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="E72" s="5">
-        <v>37</v>
+      <c r="A72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="6">
+        <v>59</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="E72" s="6">
+        <v>59</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C73" s="5">
-        <v>22</v>
-      </c>
-      <c r="D73" s="2">
-        <v>2</v>
-      </c>
-      <c r="E73" s="5">
-        <v>22</v>
+      <c r="A73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C73" s="6">
+        <v>71</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E73" s="6">
+        <v>71</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>21</v>
@@ -2020,102 +1971,182 @@
     </row>
     <row r="74" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" s="5">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C74" s="5">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D74" s="2">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E74" s="5">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="5">
         <v>59</v>
       </c>
       <c r="D75" s="2">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="E75" s="5">
         <v>59</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" s="5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C76" s="5">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D76" s="2">
         <v>3.1</v>
       </c>
       <c r="E76" s="5">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C77" s="5">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E77" s="5">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C78" s="5">
+        <v>52</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E78" s="5">
+        <v>52</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C79" s="5">
+        <v>59</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E79" s="5">
+        <v>59</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C80" s="5">
+        <v>47</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E80" s="5">
+        <v>47</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C81" s="5">
+        <v>51</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E81" s="5">
+        <v>51</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="5">
         <v>2012</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C82" s="5">
         <v>56</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D82" s="2">
         <v>2.7</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E82" s="5">
         <v>56</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>21</v>
+      <c r="F82" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
